--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Learning-Testing\Budget-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A2308D1-B4B2-4C66-A785-26056C2D0212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE56D13-F7B9-49B5-93D3-F19ABF9C5627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{538D9D5C-48EC-4313-B419-EBF18A477277}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>item</t>
   </si>
@@ -91,16 +91,73 @@
   </si>
   <si>
     <t>sam's</t>
+  </si>
+  <si>
+    <t>Member's Mark Organic Blueberries, Frozen (3 lbs.)</t>
+  </si>
+  <si>
+    <t>blue berries</t>
+  </si>
+  <si>
+    <t>Member’s Mark USDA Choice Angus Beef Inside Skirt Steak (priced per pound)</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>HEB</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>Cage Free Brown Eggs 30</t>
+  </si>
+  <si>
+    <t>Cage Free White Large Egg 18</t>
+  </si>
+  <si>
+    <t>Kodiak Portein Pancakes Pumpkin (sale)</t>
+  </si>
+  <si>
+    <t>pancakes</t>
+  </si>
+  <si>
+    <t>Gyoza Pork &amp; Nappa</t>
+  </si>
+  <si>
+    <t>Hana World Market</t>
+  </si>
+  <si>
+    <t>Red Bean Daifuku8PC</t>
+  </si>
+  <si>
+    <t>New York Bakery Pillow Cake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asian desert </t>
+  </si>
+  <si>
+    <t>gyozas</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>valero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,17 +166,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF0067A0"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF424242"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,7 +197,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,19 +512,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C94B61-A932-44FA-BE97-1DCE0EC8828F}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -491,15 +543,18 @@
       <c r="F1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>6.44</v>
       </c>
       <c r="D2">
@@ -511,15 +566,18 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>16.98</v>
       </c>
       <c r="D3">
@@ -531,55 +589,64 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>20.98</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>4.28</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>15.98</v>
       </c>
       <c r="D6">
@@ -591,15 +658,18 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>5.38</v>
       </c>
       <c r="D7">
@@ -611,6 +681,219 @@
       <c r="F7" t="s">
         <v>21</v>
       </c>
+      <c r="G7" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>8.68</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>25.7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>3.78</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>7.22</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>2.91</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>5.99</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>2.39</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Learning-Testing\Budget-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE56D13-F7B9-49B5-93D3-F19ABF9C5627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438E0E73-012D-4578-8589-0139F1440802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{538D9D5C-48EC-4313-B419-EBF18A477277}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="01-13-23" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>item</t>
   </si>
@@ -151,6 +152,15 @@
   </si>
   <si>
     <t>valero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rib eye </t>
+  </si>
+  <si>
+    <t>La Mexicana</t>
+  </si>
+  <si>
+    <t>Rib Eye</t>
   </si>
 </sst>
 </file>
@@ -216,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,10 +525,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" customWidth="1"/>
@@ -892,7 +902,27 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>2.96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
